--- a/salary_search.xlsx
+++ b/salary_search.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\YAZEED\Documents\python_camp\pyLabs\UNIT-1_PROJECT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9A5E459-545B-44AA-9469-C2678AD40478}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C46FB607-7052-4879-A7B3-B2CFE30D18AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,15 +20,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>0123654789</t>
   </si>
   <si>
-    <t>hghg</t>
+    <t>salem</t>
   </si>
   <si>
-    <t>hhhhh</t>
+    <t>ceo</t>
+  </si>
+  <si>
+    <t>male</t>
   </si>
 </sst>
 </file>
@@ -375,12 +378,12 @@
   <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.44140625" customWidth="1"/>
     <col min="8" max="8" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -389,13 +392,13 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
       <c r="D1">
-        <v>650</v>
+        <v>7500</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
@@ -404,7 +407,7 @@
         <v>6</v>
       </c>
       <c r="G1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H1" s="1">
         <v>44952</v>
